--- a/Excel Data/ForeignDD.xlsx
+++ b/Excel Data/ForeignDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\QATeam\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CREDIT.CURRENCY</t>
   </si>
@@ -47,9 +47,6 @@
     <t>BK.TO.BK.OUT:1:1</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>FDD</t>
   </si>
   <si>
@@ -57,6 +54,15 @@
   </si>
   <si>
     <t>DRCUST</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CREDIT.ACCT.NO</t>
+  </si>
+  <si>
+    <t>CHEQUE.NUMBER</t>
   </si>
 </sst>
 </file>
@@ -374,66 +380,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1000075724</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1000264788</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>1000264788</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
+      </c>
+      <c r="I2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/ForeignDD.xlsx
+++ b/Excel Data/ForeignDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,13 +56,13 @@
     <t>DRCUST</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>CREDIT.ACCT.NO</t>
   </si>
   <si>
     <t>CHEQUE.NUMBER</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -423,12 +423,12 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1000075724</v>
@@ -440,7 +440,7 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1000264788</v>
+        <v>1000008617</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/Excel Data/ForeignDD.xlsx
+++ b/Excel Data/ForeignDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CREDIT.CURRENCY</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>TREASURY.RATE</t>
+  </si>
+  <si>
+    <t>CUST.RATE</t>
+  </si>
+  <si>
+    <t>DD.ADDRESS:1</t>
+  </si>
+  <si>
+    <t>PURP.REMITT:1</t>
+  </si>
+  <si>
+    <t>REL.BENEFICIARY</t>
   </si>
 </sst>
 </file>
@@ -380,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,9 +410,10 @@
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,10 +439,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -451,7 +482,7 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>123456</v>
       </c>
     </row>

--- a/Excel Data/ForeignDD.xlsx
+++ b/Excel Data/ForeignDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1000075724</v>
+        <v>1000075716</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
